--- a/templates/F-825-147K CMD-C.L00.00.C LLIF Fnl QC Insp Rev 21_final.xlsx
+++ b/templates/F-825-147K CMD-C.L00.00.C LLIF Fnl QC Insp Rev 21_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AI Records\Empty Templates\Fake 825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan Nguyen\Desktop\Compare 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6E3180-EC8E-4E9A-8046-F933E0F88091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B6EC0-4F86-41C7-9427-12820D8F1F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,7 +800,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,90 +1017,93 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,8 +1122,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1413,8 +1416,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:P6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1436,521 +1439,521 @@
       <c r="A2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="86" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="86"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="45"/>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="85" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84" t="s">
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="88"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="88"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="77"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="77"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="88"/>
     </row>
     <row r="11" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="88"/>
     </row>
     <row r="12" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
     </row>
     <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74" t="s">
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88"/>
     </row>
     <row r="17" spans="1:16" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74" t="s">
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="77"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
     </row>
     <row r="18" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="77"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
     </row>
     <row r="19" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74" t="s">
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74" t="s">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74" t="s">
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="77"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="88"/>
     </row>
     <row r="22" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74" t="s">
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="77"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88"/>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="88"/>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74" t="s">
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
@@ -2092,14 +2095,14 @@
       <c r="C33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78" t="s">
+      <c r="E33" s="89"/>
+      <c r="F33" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="78"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="18" t="s">
         <v>0</v>
       </c>
@@ -2109,13 +2112,13 @@
       <c r="J33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="78" t="s">
+      <c r="K33" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
       <c r="P33" s="61"/>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.6">
@@ -2141,13 +2144,13 @@
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="30"/>
-      <c r="K34" s="108" t="s">
+      <c r="K34" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
       <c r="P34" s="61"/>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.6">
@@ -2173,13 +2176,13 @@
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="108" t="s">
+      <c r="K35" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
       <c r="P35" s="63"/>
     </row>
     <row r="36" spans="1:16" ht="46.8" x14ac:dyDescent="0.6">
@@ -2205,13 +2208,13 @@
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="30"/>
-      <c r="K36" s="108" t="s">
+      <c r="K36" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
     </row>
     <row r="37" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="26" t="s">
@@ -2227,22 +2230,22 @@
         <v>1</v>
       </c>
       <c r="E37" s="70"/>
-      <c r="F37" s="104" t="s">
+      <c r="F37" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="105"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="25">
         <v>1</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="30"/>
-      <c r="K37" s="108" t="s">
+      <c r="K37" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.6">
@@ -2259,22 +2262,22 @@
         <v>1</v>
       </c>
       <c r="E38" s="70"/>
-      <c r="F38" s="104" t="s">
+      <c r="F38" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="105"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="25">
         <v>1</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="108" t="s">
+      <c r="K38" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
     </row>
     <row r="39" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="26" t="s">
@@ -2379,26 +2382,26 @@
       <c r="C42" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="80">
+      <c r="D42" s="91">
         <v>3</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="82" t="s">
+      <c r="E42" s="92"/>
+      <c r="F42" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="81"/>
+      <c r="G42" s="92"/>
       <c r="H42" s="53">
         <v>1</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="55"/>
-      <c r="K42" s="106" t="s">
+      <c r="K42" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="107"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="108"/>
+      <c r="O42" s="108"/>
     </row>
     <row r="43" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="51" t="s">
@@ -2410,26 +2413,26 @@
       <c r="C43" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="80">
+      <c r="D43" s="91">
         <v>3</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="82" t="s">
+      <c r="E43" s="92"/>
+      <c r="F43" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="81"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="53">
         <v>1</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="55"/>
-      <c r="K43" s="106" t="s">
+      <c r="K43" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="108"/>
+      <c r="O43" s="108"/>
     </row>
     <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="26" t="s">
@@ -2503,20 +2506,20 @@
       <c r="C46" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="91" t="s">
+      <c r="D46" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="79" t="s">
+      <c r="E46" s="95"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="78" t="s">
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="89"/>
       <c r="L46" s="64" t="s">
         <v>26</v>
       </c>
@@ -2535,20 +2538,20 @@
       <c r="C47" s="6">
         <v>8</v>
       </c>
-      <c r="D47" s="94">
+      <c r="D47" s="78">
         <v>12</v>
       </c>
-      <c r="E47" s="95"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="103">
+      <c r="E47" s="79"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="104">
         <v>19</v>
       </c>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="102">
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="103">
         <v>21</v>
       </c>
-      <c r="K47" s="102"/>
+      <c r="K47" s="103"/>
       <c r="L47" s="64"/>
       <c r="M47" s="64"/>
       <c r="N47" s="64"/>
@@ -2622,18 +2625,18 @@
       <c r="G54"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="47"/>
@@ -2676,14 +2679,14 @@
       <c r="C58" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="87" t="s">
+      <c r="D58" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="89"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -2700,14 +2703,14 @@
       <c r="C59" s="50">
         <v>45799</v>
       </c>
-      <c r="D59" s="98" t="s">
+      <c r="D59" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="100"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="84"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -2724,14 +2727,14 @@
       <c r="C60" s="44">
         <v>45688</v>
       </c>
-      <c r="D60" s="97" t="s">
+      <c r="D60" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -2748,14 +2751,14 @@
       <c r="C61" s="44">
         <v>45582</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2772,14 +2775,14 @@
       <c r="C62" s="44">
         <v>45365</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D62" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -2796,14 +2799,14 @@
       <c r="C63" s="37">
         <v>45148</v>
       </c>
-      <c r="D63" s="90" t="s">
+      <c r="D63" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
     </row>
     <row r="64" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
